--- a/data/CS1_3/case18_3/case18_3_2030.xlsx
+++ b/data/CS1_3/case18_3/case18_3_2030.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_3\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98444BAA-59C8-44F0-BA9E-85A03570AD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FCFCAC-B77B-4809-BC1A-EBCFECFB5EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14743,12 +14743,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14814,9 +14814,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>0.25181318373025363</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>0.35206529774767092</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>1.1705510252403413</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>1.4361276723124408</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>0.69925422433971363</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>0.24789602377021008</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>0.77343550735450117</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>0.36810984247385109</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>1.1797087920778715</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>0.29444788007116418</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>0.21497338690522683</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>0.90675649829395444</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>0.47105388205909571</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>0.77868238546223401</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -16421,9 +16421,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>0.28297270407206365</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>0.37278758326481903</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>1.2451898068781322</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>1.2235163285059458</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>0.61191697966394876</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>0.2611569322072767</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>0.75766660739418812</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>0.37535183586344001</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>1.1797087920778715</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>0.27316767186615842</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>0.19886542244005045</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>0.88854812473226341</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>0.54075470617816779</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>0.64600293230337891</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -18028,9 +18028,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>3.975320037328782E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>-0.21551734159643882</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>-0.8058279938108005</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>-2.2187375370529328</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>-0.37837005399493545</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>4.9649042022837507E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>-0.57871302024039528</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>-0.32618464811753461</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -19016,7 +19016,7 @@
         <v>-0.68486571775494698</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>-0.19365937264127414</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>-0.10183370817257832</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>0.34466921036998044</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>5.4082703033110219E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -19521,7 +19521,7 @@
         <v>0.65005049176258378</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -19635,9 +19635,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>6.4804591138752948E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>-0.21042829873862107</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -20017,7 +20017,7 @@
         <v>-0.9346827392461492</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -20118,7 +20118,7 @@
         <v>-2.2314222571500082</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -20219,7 +20219,7 @@
         <v>-0.37228867894771622</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>6.2780288323283293E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>-0.55006336660992994</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>-0.32980960307947754</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>-0.68486571775494698</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>-0.17969411279078393</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>-0.10113670231723657</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>0.19160125347578089</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>2.3851833114527994E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>0.623436347155085</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -21242,9 +21242,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>0.10877730965936498</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>-0.20119940422827409</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>-0.96208581598647036</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -21725,7 +21725,7 @@
         <v>-2.1052192792049569</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>-0.41510036480637857</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -21927,7 +21927,7 @@
         <v>8.92423846291793E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>-0.68486571775494698</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>-0.32984548042531242</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>-0.68486571775494698</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>-0.19631907569374427</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>-0.10752059139917339</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>0.317389290584074</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>-1.7822741655347678E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -22735,7 +22735,7 @@
         <v>0.68486571775494698</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -22849,9 +22849,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -23029,7 +23029,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -23130,7 +23130,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -24342,7 +24342,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -24456,9 +24456,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -24737,7 +24737,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -25141,7 +25141,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -25242,7 +25242,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -25444,7 +25444,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -25747,7 +25747,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -25949,7 +25949,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -26063,9 +26063,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -26142,7 +26142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -26445,7 +26445,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -26546,7 +26546,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -26647,7 +26647,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -26849,7 +26849,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -26950,7 +26950,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -27051,7 +27051,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -27253,7 +27253,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -27354,7 +27354,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -27556,7 +27556,7 @@
         <v>18.299002237217781</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -27670,9 +27670,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -27749,7 +27749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -27826,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -27927,7 +27927,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28230,7 +28230,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -28344,9 +28344,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -28601,7 +28601,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -28803,7 +28803,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -28904,7 +28904,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29016,12 +29016,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -29098,7 +29098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -29188,9 +29188,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29267,7 +29267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -29445,7 +29445,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -29546,7 +29546,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -29647,7 +29647,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -29862,9 +29862,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -29941,7 +29941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30018,7 +30018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30172,7 +30172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30326,7 +30326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30416,9 +30416,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -30649,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -30880,7 +30880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -30970,9 +30970,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -31049,7 +31049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31203,7 +31203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31280,7 +31280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -31524,9 +31524,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -31603,7 +31603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -31680,7 +31680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -31757,7 +31757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -31834,7 +31834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -31911,7 +31911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -31988,7 +31988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -32078,9 +32078,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -32157,7 +32157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -32258,7 +32258,7 @@
         <v>0.24148918726294316</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -32359,7 +32359,7 @@
         <v>0.3964083401403608</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -32460,7 +32460,7 @@
         <v>1.0727864350519027</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -32561,7 +32561,7 @@
         <v>1.7629759433931713</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -32662,7 +32662,7 @@
         <v>0.775970825565936</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -32763,7 +32763,7 @@
         <v>0.23461636745137276</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -32864,7 +32864,7 @@
         <v>0.76035375600504551</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -32965,7 +32965,7 @@
         <v>0.32273822515684675</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -33066,7 +33066,7 @@
         <v>0.98490142676761439</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -33167,7 +33167,7 @@
         <v>0.30978690155998467</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -33268,7 +33268,7 @@
         <v>0.22790475905509566</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -33369,7 +33369,7 @@
         <v>0.95257196625363749</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -33470,7 +33470,7 @@
         <v>0.51473663003536141</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -33571,7 +33571,7 @@
         <v>0.76756453111995748</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -33685,9 +33685,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -33764,7 +33764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -33865,7 +33865,7 @@
         <v>0.25345354615302351</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -33966,7 +33966,7 @@
         <v>0.40598603202125594</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -34067,7 +34067,7 @@
         <v>1.2670429453274126</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -34168,7 +34168,7 @@
         <v>1.9712273770918658</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -34269,7 +34269,7 @@
         <v>0.76943847468970927</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -34370,7 +34370,7 @@
         <v>0.2565412294945198</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>0.78560852747993448</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -34572,7 +34572,7 @@
         <v>0.36800220738743411</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -34673,7 +34673,7 @@
         <v>1.0153879943935096</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -34774,7 +34774,7 @@
         <v>0.32658388669090133</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>0.23869591194937928</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -34976,7 +34976,7 @@
         <v>0.8016997182740272</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -35077,7 +35077,7 @@
         <v>0.51975798859605693</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -35178,7 +35178,7 @@
         <v>0.82562206624487511</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -35292,9 +35292,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -35371,7 +35371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -35472,7 +35472,7 @@
         <v>0.26648132995253349</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -35573,7 +35573,7 @@
         <v>0.39161558153253423</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -35674,7 +35674,7 @@
         <v>1.3441049289753324</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -35775,7 +35775,7 @@
         <v>1.5908800164741557</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -35876,7 +35876,7 @@
         <v>0.71571946375426054</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -35977,7 +35977,7 @@
         <v>0.2574580513007319</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -36078,7 +36078,7 @@
         <v>0.90578429806534122</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -36179,7 +36179,7 @@
         <v>0.45415619849165328</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -36280,7 +36280,7 @@
         <v>1.0065325795471172</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -36381,7 +36381,7 @@
         <v>0.29814144561594252</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -36482,7 +36482,7 @@
         <v>0.21290792200005998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -36583,7 +36583,7 @@
         <v>0.72898641104867079</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -36684,7 +36684,7 @@
         <v>0.58298741652320563</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -36785,7 +36785,7 @@
         <v>0.74384047784948348</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -36899,9 +36899,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -36978,7 +36978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -37079,7 +37079,7 @@
         <v>5.7668157648919041E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -37180,7 +37180,7 @@
         <v>1.1111669339301364E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -37281,7 +37281,7 @@
         <v>-0.56886799469344218</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -37382,7 +37382,7 @@
         <v>-2.0026624778261573</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -37483,7 +37483,7 @@
         <v>-8.0422484567673175E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -37584,7 +37584,7 @@
         <v>6.3363573105490525E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -37685,7 +37685,7 @@
         <v>-0.43647712262212651</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -37786,7 +37786,7 @@
         <v>-0.3324829839163182</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -37887,7 +37887,7 @@
         <v>-7.2033127976043429E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -37988,7 +37988,7 @@
         <v>-0.12924593403855106</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -38089,7 +38089,7 @@
         <v>-8.8450186335222392E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -38190,7 +38190,7 @@
         <v>0.5483596977252948</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -38291,7 +38291,7 @@
         <v>7.0989982700628437E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -38392,7 +38392,7 @@
         <v>0.56468985640887703</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -38506,9 +38506,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -38585,7 +38585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -38686,7 +38686,7 @@
         <v>6.4273176810800012E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -38787,7 +38787,7 @@
         <v>-0.10592033243138436</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -38888,7 +38888,7 @@
         <v>-0.98415582025126547</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -38989,7 +38989,7 @@
         <v>-2.1067361196555763</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -39090,7 +39090,7 @@
         <v>-0.23631803726808076</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -39191,7 +39191,7 @@
         <v>9.0587417830264486E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -39292,7 +39292,7 @@
         <v>-0.5764184176925613</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -39393,7 +39393,7 @@
         <v>-0.34064319575214141</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>-3.8130960027624193E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -39595,7 +39595,7 @@
         <v>-0.16758698225550489</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -39696,7 +39696,7 @@
         <v>-9.4508175437558517E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -39797,7 +39797,7 @@
         <v>0.18587630651584799</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -39898,7 +39898,7 @@
         <v>4.6790094996765272E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -39999,7 +39999,7 @@
         <v>0.68486571775494698</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -40113,9 +40113,9 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -40123,7 +40123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>8</v>
       </c>
@@ -40132,7 +40132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>9</v>
       </c>
@@ -40141,7 +40141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>22</v>
       </c>
@@ -40150,7 +40150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -40159,7 +40159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>26</v>
       </c>
@@ -40181,9 +40181,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -40260,7 +40260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -40361,7 +40361,7 @@
         <v>6.327715294226606E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -40462,7 +40462,7 @@
         <v>-0.17511097831106825</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -40563,7 +40563,7 @@
         <v>-0.92545553367833933</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -40664,7 +40664,7 @@
         <v>-1.9558436318437005</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -40765,7 +40765,7 @@
         <v>-0.19829699796597935</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -40866,7 +40866,7 @@
         <v>8.8420700087094697E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -40967,7 +40967,7 @@
         <v>-0.49691944104532215</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -41068,7 +41068,7 @@
         <v>-0.32377042933376932</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -41169,7 +41169,7 @@
         <v>-0.15385613985736174</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -41270,7 +41270,7 @@
         <v>-0.16361153387490734</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -41371,7 +41371,7 @@
         <v>-8.5730233926355884E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -41472,7 +41472,7 @@
         <v>7.9372634451062352E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -41573,7 +41573,7 @@
         <v>7.788701213714419E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -41674,7 +41674,7 @@
         <v>0.57330615969709819</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -41788,9 +41788,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -41867,7 +41867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -41968,7 +41968,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -42069,7 +42069,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -42170,7 +42170,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -42271,7 +42271,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -42372,7 +42372,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -42473,7 +42473,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -42574,7 +42574,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -42675,7 +42675,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -42776,7 +42776,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -42877,7 +42877,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -42978,7 +42978,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -43079,7 +43079,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -43180,7 +43180,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -43281,7 +43281,7 @@
         <v>8.2326666666666673E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -43395,9 +43395,9 @@
       <selection activeCell="B2" sqref="B2:Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -43474,7 +43474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -43575,7 +43575,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -43676,7 +43676,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -43777,7 +43777,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -43878,7 +43878,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -43979,7 +43979,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -44080,7 +44080,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -44181,7 +44181,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -44282,7 +44282,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -44383,7 +44383,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -44484,7 +44484,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -44585,7 +44585,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -44686,7 +44686,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -44787,7 +44787,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -44888,7 +44888,7 @@
         <v>0.23837999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -45002,9 +45002,9 @@
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -45081,7 +45081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -45182,7 +45182,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -45283,7 +45283,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -45384,7 +45384,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -45485,7 +45485,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -45586,7 +45586,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -45687,7 +45687,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -45788,7 +45788,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -45889,7 +45889,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -45990,7 +45990,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -46091,7 +46091,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -46192,7 +46192,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -46293,7 +46293,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -46394,7 +46394,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -46495,7 +46495,7 @@
         <v>15.148720029030207</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -46609,9 +46609,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -46688,7 +46688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -46765,7 +46765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -46866,7 +46866,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -46967,7 +46967,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47068,7 +47068,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47169,7 +47169,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47283,9 +47283,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -47362,7 +47362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -47439,7 +47439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -47540,7 +47540,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -47641,7 +47641,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -47742,7 +47742,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -47843,7 +47843,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -47957,9 +47957,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48036,7 +48036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48113,7 +48113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48214,7 +48214,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48315,7 +48315,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -48416,7 +48416,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -48517,7 +48517,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -48631,9 +48631,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -48710,7 +48710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -48787,7 +48787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -48864,7 +48864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -48941,7 +48941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49018,7 +49018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49095,7 +49095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49185,9 +49185,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49264,7 +49264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49341,7 +49341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49418,7 +49418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -49495,7 +49495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -49572,7 +49572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -49649,7 +49649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -49739,9 +49739,9 @@
       <selection activeCell="B6" sqref="B6:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -49818,7 +49818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -49895,7 +49895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -49972,7 +49972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -50049,7 +50049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -50126,7 +50126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -50203,7 +50203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -50293,9 +50293,9 @@
       <selection activeCell="A2" sqref="A2:U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -50360,7 +50360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -50426,7 +50426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9</v>
       </c>
@@ -50492,7 +50492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>22</v>
       </c>
@@ -50558,7 +50558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>24</v>
       </c>
@@ -50624,7 +50624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>26</v>
       </c>
@@ -50703,9 +50703,9 @@
       <selection activeCell="B7" sqref="B7:Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -50782,7 +50782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>51</v>
       </c>
@@ -50859,7 +50859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -50936,7 +50936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>9</v>
       </c>
@@ -51013,7 +51013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>22</v>
       </c>
@@ -51090,7 +51090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>24</v>
       </c>
@@ -51167,7 +51167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>26</v>
       </c>
@@ -51257,9 +51257,9 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -51267,7 +51267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -51276,7 +51276,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>8</v>
       </c>
@@ -51285,7 +51285,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>21</v>
       </c>
@@ -51294,7 +51294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>23</v>
       </c>
@@ -51316,9 +51316,9 @@
       <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -51344,7 +51344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51373,7 +51373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -51402,7 +51402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -51431,7 +51431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23</v>
       </c>
@@ -51473,9 +51473,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -51483,7 +51483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -51492,7 +51492,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -51501,7 +51501,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -51510,7 +51510,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -51519,7 +51519,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -51528,7 +51528,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -51537,7 +51537,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -51546,7 +51546,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -51555,7 +51555,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -51564,7 +51564,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -51573,7 +51573,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -51582,7 +51582,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -51591,7 +51591,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -51600,7 +51600,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -51609,7 +51609,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
@@ -51631,12 +51631,12 @@
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -51713,7 +51713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -51790,7 +51790,7 @@
         <v>1.1263000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -51867,7 +51867,7 @@
         <v>-2.4493999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -51957,9 +51957,9 @@
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -52036,7 +52036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -52137,7 +52137,7 @@
         <v>0.23819712728548775</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -52238,7 +52238,7 @@
         <v>0.35960897041613871</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -52339,7 +52339,7 @@
         <v>0.96885075541745891</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -52440,7 +52440,7 @@
         <v>1.3375040912599367</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -52541,7 +52541,7 @@
         <v>0.71149211490255859</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -52642,7 +52642,7 @@
         <v>0.22935236828950872</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -52743,7 +52743,7 @@
         <v>0.71164886642180702</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -52844,7 +52844,7 @@
         <v>0.33883249316237124</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20</v>
       </c>
@@ -52945,7 +52945,7 @@
         <v>1.1797087920778715</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -53046,7 +53046,7 @@
         <v>0.29250971057229641</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22</v>
       </c>
@@ -53147,7 +53147,7 @@
         <v>0.21616840983079483</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23</v>
       </c>
@@ -53248,7 +53248,7 @@
         <v>0.91139010636575901</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24</v>
       </c>
@@ -53349,7 +53349,7 @@
         <v>0.48502648473991844</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -53450,7 +53450,7 @@
         <v>0.77907044583102047</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26</v>
       </c>
